--- a/biology/Botanique/Asteliaceae/Asteliaceae.xlsx
+++ b/biology/Botanique/Asteliaceae/Asteliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Astéliacées regroupe des plantes monocotylédones ; elle comprend quelques douzaines espèces réparties en 2-5 genres.
 C'est une famille largement répandue dans l'hémisphère sud mais absente d'Afrique australe. 
-La famille n'existe pas en classification classique de Cronquist (1981)[1], qui assigne à cette plante la famille des Liliacées.
+La famille n'existe pas en classification classique de Cronquist (1981), qui assigne à cette plante la famille des Liliacées.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Astelia composé du préfixe grec ἀ-, (a-), exprimant le privatif et de στέλη (stéli), colonne, en référence à l'absence de tige ou de tronc[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Astelia composé du préfixe grec ἀ-, (a-), exprimant le privatif et de στέλη (stéli), colonne, en référence à l'absence de tige ou de tronc.
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[3], Angiosperm Phylogeny Website                        (17 mai 2010)[4] et NCBI  (16 avr. 2010)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010), Angiosperm Phylogeny Website                        (17 mai 2010) et NCBI  (16 avr. 2010) :
 genre Astelia Banks &amp; Sol. ex R.Br. (1810)
 genre Collospermum Skottsb. (1934)
 genre Milligania Hook.f. (1853)
 genre Neoastelia J.B.Williams (1987)
-Selon DELTA Angio           (16 avr. 2010)[6] :
+Selon DELTA Angio           (16 avr. 2010) :
 genre Astelia
 genre Collospermum
 genre Cordyline
@@ -584,9 +600,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010) :
 genre Astelia Banks &amp; Sol. ex R.Br. (1810)
 Astelia alpina  R.Br. (1810)
 Astelia alpina var. alpina  .
@@ -634,7 +652,7 @@
 Milligania stylosa  (F.Muell. ex Hook.f.) F.Muell. ex Benth. (1878)
 genre Neoastelia J.B.Williams (1987)
 Neoastelia spectabilis  J.B.Williams (1987)
-Selon NCBI  (16 avr. 2010)[5] :
+Selon NCBI  (16 avr. 2010) :
 genre Astelia
 Astelia alpina
 Astelia banksii
